--- a/biology/Zoologie/Cremna/Cremna.xlsx
+++ b/biology/Zoologie/Cremna/Cremna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cremna est un genre d'insectes lépidoptères de la famille des Riodinidae qui résident en Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Cremna leur a été donné par Edward Doubleday en 1847.
 Synonyme :
@@ -543,14 +557,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cremna actoris (Cramer, [1776]); présent en Guyane, en Guyana, au Surinam et au Brésil.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cremna actoris (Cramer, ); présent en Guyane, en Guyana, au Surinam et au Brésil.
 Cremna alector (Geyer, 1837); présent en Guyane, en Guyana et au Brésil.
 Cremna calitra Hewitson, 1869; en  Équateur
 Cremna cuyabaensis Talbot, 1928; présent au Brésil et au Pérou.
 Cremna heteroea Bates, 1867; présent au Brésil.
-Cremna thasus (Stoll, [1780]); présent au Mexique, au Costa Rica, à Panama, au Surinam, au Brésil et au Pérou.</t>
+Cremna thasus (Stoll, ); présent au Mexique, au Costa Rica, à Panama, au Surinam, au Brésil et au Pérou.</t>
         </is>
       </c>
     </row>
